--- a/yxf_yixue/utils/cexcel/关联表-地支六合.xlsx
+++ b/yxf_yixue/utils/cexcel/关联表-地支六合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,10 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,14 +465,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -481,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -492,16 +492,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -509,16 +509,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -560,21 +560,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>